--- a/output/predictions__C4mmim__Tf2N__Aluminum_Oxide_3_0_0_5_Whisker.xlsx
+++ b/output/predictions__C4mmim__Tf2N__Aluminum_Oxide_3_0_0_5_Whisker.xlsx
@@ -504,7 +504,7 @@
         <v>0.126981208580517</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1274665296077728</v>
+        <v>0.1267509609460831</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         <v>0.128744053459237</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1298625469207764</v>
+        <v>0.1298508644104004</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         <v>0.134991544641857</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1347511112689972</v>
+        <v>0.1340485811233521</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         <v>0.136191511656707</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1366267204284668</v>
+        <v>0.1356126070022583</v>
       </c>
     </row>
   </sheetData>

--- a/output/predictions__C4mmim__Tf2N__Aluminum_Oxide_3_0_0_5_Whisker.xlsx
+++ b/output/predictions__C4mmim__Tf2N__Aluminum_Oxide_3_0_0_5_Whisker.xlsx
@@ -504,7 +504,7 @@
         <v>0.126981208580517</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1267509609460831</v>
+        <v>0.1264566332101822</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         <v>0.128744053459237</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1298508644104004</v>
+        <v>0.129525288939476</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         <v>0.134991544641857</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1340485811233521</v>
+        <v>0.1344194412231445</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         <v>0.136191511656707</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1356126070022583</v>
+        <v>0.1365296244621277</v>
       </c>
     </row>
   </sheetData>
